--- a/biology/Origine et évolution du vivant/Sycon_elegans/Sycon_elegans.xlsx
+++ b/biology/Origine et évolution du vivant/Sycon_elegans/Sycon_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sycon elegans[1] est une espèce d'éponges calcaires[2]. Ce sont des animaux diploblastiques : ils ne possèdent que deux feuillets : un ectoderme et un endoderme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sycon elegans est une espèce d'éponges calcaires. Ce sont des animaux diploblastiques : ils ne possèdent que deux feuillets : un ectoderme et un endoderme.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sycon elegans a une forme cylindrique ovoïde ou sous sphérique, de couleur blanche, jaunâtre ou brunâtre, de petite taille, il atteint une hauteur de 7 cm et une longueur de 2,5 cm à 7,5 cm.
 Le squelette de cette éponge est constitué de spicules calcaires sous forme de calcite, son système nerveux est très primitif et diffus.
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'absence d'une différenciation des spicules.
 </t>
@@ -575,7 +591,9 @@
           <t>Écologie et environnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sycon elegans sont des animaux benthiques, ils vivent fixés sur les fonds marins. On peut les rencontrer dans les premiers 100 m sous la surface, à des profondeurs moindres dans les zones sombres des grottes, ils se fixent sur des substrats durs et ne nécessitent aucun soin particulier. 
 </t>
@@ -606,7 +624,9 @@
           <t>Nutrition et respiration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sycon elegans est un organisme microphage dont le mode de nutrition est la filtration active. Il doit filtrer 3,5 kg d'eau pour constituer 1 g de masse corporelle.
 La respiration et la nutrition chez le Sycon elegans sont liées : les pores de la paroi externe inhalent l'eau contenant les particules organiques et l'oxygène en suspension, la paroi interne contient des cellules à collerettes flagellées appelées choanocytes qui captent les particules alimentaires (toutes les particules non assimilables sont rejetées par l'oscule) et les pores exhalants font sortir le CO2.
@@ -638,46 +658,119 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sycon elegans utilise deux modes de reproduction : sexuée et asexuée[2].
-Développement embryonnaire dans la reproduction sexuée
-la formation des gamètes dans la mésoglée.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sycon elegans utilise deux modes de reproduction : sexuée et asexuée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sycon_elegans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sycon_elegans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Développement embryonnaire dans la reproduction sexuée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>la formation des gamètes dans la mésoglée.
 les spermatozoïdes quittent le sycon mâle et pénètrent dans un sycon femelle.
 après la fécondation, la larve quitte la mère et se libère dans l'eau.
 les feuillets embryonnaires se forment.
 la larve (planula) se fixe par le blastopore.
-l'ouverture de l'oscule a lieu dans la zone opposée au blastopore.
-Reproduction asexuée (bourgeonnement externe)
-le bourgeon formé se détache et forme un autre sycon.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sycon_elegans</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sycon_elegans</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+l'ouverture de l'oscule a lieu dans la zone opposée au blastopore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sycon_elegans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sycon_elegans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Reproduction asexuée (bourgeonnement externe)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>le bourgeon formé se détache et forme un autre sycon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sycon_elegans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sycon_elegans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sycon elegans appartiennent à un groupe très ancien, très abondant dans les sédiments paléontologiques formant l'embranchement basal de métazoaires.
 Dans l'histoire de la biologie, ils ont longtemps été considérés comme un végétal; ils étaient déjà présents longtemps avant le début de la période cambrienne.
